--- a/Sample Data Model XL files/SampleModel_4Objects_Tables_ForeignKeys.xlsx
+++ b/Sample Data Model XL files/SampleModel_4Objects_Tables_ForeignKeys.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\BUILD_User_Assistance\Sample Data Model XL files\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="16065" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="BuildExport" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="140001"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -19,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="105">
   <si>
     <t>ID</t>
   </si>
@@ -408,8 +413,44 @@
     <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -461,6 +502,34 @@
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Product" displayName="Product" ref="W2:AA8" totalsRowShown="0">
   <autoFilter ref="W2:AA8"/>
+  <tableColumns count="5">
+    <tableColumn id="1" name="ID"/>
+    <tableColumn id="2" name="SKU"/>
+    <tableColumn id="3" name="Description"/>
+    <tableColumn id="4" name="UnitPrice"/>
+    <tableColumn id="5" name="Currency"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="SalesOrderItem6" displayName="SalesOrderItem6" ref="B13:F22" totalsRowShown="0">
+  <autoFilter ref="B13:F22"/>
+  <tableColumns count="5">
+    <tableColumn id="1" name="ID"/>
+    <tableColumn id="2" name="Quantity"/>
+    <tableColumn id="3" name="Status"/>
+    <tableColumn id="4" name="SalesOrder.SalesOrderItem.SalesOrderItem"/>
+    <tableColumn id="5" name="SalesOrderItem.Product.Product"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Product7" displayName="Product7" ref="H13:L19" totalsRowShown="0">
+  <autoFilter ref="H13:L19"/>
   <tableColumns count="5">
     <tableColumn id="1" name="ID"/>
     <tableColumn id="2" name="SKU"/>
@@ -794,23 +863,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:AA11"/>
+  <dimension ref="B2:AA22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="Q1" sqref="Q1:AA11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="19.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.6640625" customWidth="1"/>
-    <col min="12" max="12" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="39.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.375" customWidth="1"/>
+    <col min="6" max="6" width="12.5" customWidth="1"/>
+    <col min="7" max="7" width="18.625" customWidth="1"/>
+    <col min="9" max="9" width="19.25" customWidth="1"/>
+    <col min="10" max="10" width="33.875" customWidth="1"/>
+    <col min="12" max="12" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="39.875" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="31" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:27">
+    <row r="2" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -881,7 +954,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="2:27">
+    <row r="3" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>18</v>
       </c>
@@ -952,7 +1025,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="2:27">
+    <row r="4" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>33</v>
       </c>
@@ -1023,7 +1096,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="2:27">
+    <row r="5" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>45</v>
       </c>
@@ -1094,7 +1167,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="2:27">
+    <row r="6" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>57</v>
       </c>
@@ -1165,7 +1238,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="7" spans="2:27">
+    <row r="7" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>70</v>
       </c>
@@ -1236,7 +1309,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="8" spans="2:27">
+    <row r="8" spans="2:27" x14ac:dyDescent="0.25">
       <c r="Q8" t="s">
         <v>100</v>
       </c>
@@ -1268,7 +1341,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="2:27">
+    <row r="9" spans="2:27" x14ac:dyDescent="0.25">
       <c r="Q9" t="s">
         <v>101</v>
       </c>
@@ -1285,7 +1358,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="10" spans="2:27">
+    <row r="10" spans="2:27" x14ac:dyDescent="0.25">
       <c r="Q10" t="s">
         <v>102</v>
       </c>
@@ -1302,7 +1375,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="11" spans="2:27">
+    <row r="11" spans="2:27" x14ac:dyDescent="0.25">
       <c r="Q11" t="s">
         <v>103</v>
       </c>
@@ -1316,6 +1389,281 @@
         <v>88</v>
       </c>
       <c r="U11" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="13" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" t="s">
+        <v>104</v>
+      </c>
+      <c r="F13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H13" t="s">
+        <v>0</v>
+      </c>
+      <c r="I13" t="s">
+        <v>14</v>
+      </c>
+      <c r="J13" t="s">
+        <v>15</v>
+      </c>
+      <c r="K13" t="s">
+        <v>16</v>
+      </c>
+      <c r="L13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>95</v>
+      </c>
+      <c r="C14" s="1">
+        <v>5</v>
+      </c>
+      <c r="D14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14" t="s">
+        <v>84</v>
+      </c>
+      <c r="F14" t="s">
+        <v>89</v>
+      </c>
+      <c r="H14" t="s">
+        <v>89</v>
+      </c>
+      <c r="I14" t="s">
+        <v>30</v>
+      </c>
+      <c r="J14" t="s">
+        <v>31</v>
+      </c>
+      <c r="K14" s="1">
+        <v>10</v>
+      </c>
+      <c r="L14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>96</v>
+      </c>
+      <c r="C15" s="1">
+        <v>3</v>
+      </c>
+      <c r="D15" t="s">
+        <v>42</v>
+      </c>
+      <c r="E15" t="s">
+        <v>84</v>
+      </c>
+      <c r="F15" t="s">
+        <v>93</v>
+      </c>
+      <c r="H15" t="s">
+        <v>90</v>
+      </c>
+      <c r="I15" t="s">
+        <v>43</v>
+      </c>
+      <c r="J15" t="s">
+        <v>44</v>
+      </c>
+      <c r="K15" s="1">
+        <v>15</v>
+      </c>
+      <c r="L15" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>97</v>
+      </c>
+      <c r="C16" s="1">
+        <v>7</v>
+      </c>
+      <c r="D16" t="s">
+        <v>40</v>
+      </c>
+      <c r="E16" t="s">
+        <v>85</v>
+      </c>
+      <c r="F16" t="s">
+        <v>91</v>
+      </c>
+      <c r="H16" t="s">
+        <v>91</v>
+      </c>
+      <c r="I16" t="s">
+        <v>55</v>
+      </c>
+      <c r="J16" t="s">
+        <v>56</v>
+      </c>
+      <c r="K16" s="1">
+        <v>800</v>
+      </c>
+      <c r="L16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>98</v>
+      </c>
+      <c r="C17" s="1">
+        <v>10</v>
+      </c>
+      <c r="D17" t="s">
+        <v>40</v>
+      </c>
+      <c r="E17" t="s">
+        <v>85</v>
+      </c>
+      <c r="F17" t="s">
+        <v>92</v>
+      </c>
+      <c r="H17" t="s">
+        <v>92</v>
+      </c>
+      <c r="I17" t="s">
+        <v>67</v>
+      </c>
+      <c r="J17" t="s">
+        <v>68</v>
+      </c>
+      <c r="K17" s="1">
+        <v>1756</v>
+      </c>
+      <c r="L17" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>99</v>
+      </c>
+      <c r="C18" s="1">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>40</v>
+      </c>
+      <c r="E18" t="s">
+        <v>85</v>
+      </c>
+      <c r="F18" t="s">
+        <v>94</v>
+      </c>
+      <c r="H18" t="s">
+        <v>93</v>
+      </c>
+      <c r="I18" t="s">
+        <v>79</v>
+      </c>
+      <c r="J18" t="s">
+        <v>80</v>
+      </c>
+      <c r="K18" s="1">
+        <v>2350</v>
+      </c>
+      <c r="L18" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>100</v>
+      </c>
+      <c r="C19" s="1">
+        <v>6</v>
+      </c>
+      <c r="D19" t="s">
+        <v>29</v>
+      </c>
+      <c r="E19" t="s">
+        <v>86</v>
+      </c>
+      <c r="F19" t="s">
+        <v>90</v>
+      </c>
+      <c r="H19" t="s">
+        <v>94</v>
+      </c>
+      <c r="I19" t="s">
+        <v>82</v>
+      </c>
+      <c r="J19" t="s">
+        <v>83</v>
+      </c>
+      <c r="K19" s="1">
+        <v>560</v>
+      </c>
+      <c r="L19" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>101</v>
+      </c>
+      <c r="C20" s="1">
+        <v>11</v>
+      </c>
+      <c r="D20" t="s">
+        <v>29</v>
+      </c>
+      <c r="E20" t="s">
+        <v>86</v>
+      </c>
+      <c r="F20" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>102</v>
+      </c>
+      <c r="C21" s="1">
+        <v>14</v>
+      </c>
+      <c r="D21" t="s">
+        <v>42</v>
+      </c>
+      <c r="E21" t="s">
+        <v>87</v>
+      </c>
+      <c r="F21" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>103</v>
+      </c>
+      <c r="C22" s="1">
+        <v>19</v>
+      </c>
+      <c r="D22" t="s">
+        <v>29</v>
+      </c>
+      <c r="E22" t="s">
+        <v>88</v>
+      </c>
+      <c r="F22" t="s">
         <v>93</v>
       </c>
     </row>
@@ -1324,20 +1672,22 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O3:O7">
       <formula1>$B$3:$B$7</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T3:T11">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T3:T11 E14:E22">
       <formula1>$K$3:$K$7</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U3:U11">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U3:U11 F14:F22">
       <formula1>$W$3:$W$8</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <tableParts count="4">
+  <tableParts count="6">
     <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
     <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
+    <tablePart r:id="rId6"/>
   </tableParts>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
